--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,21 +61,27 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -85,148 +91,133 @@
     <t>loved</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cake</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>easy</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
-    <t>new</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>use</t>
@@ -590,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2713178294573643</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -785,13 +776,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L6">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M6">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +828,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7173913043478261</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +880,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -915,13 +906,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6753246753246753</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -941,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6745762711864407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -967,13 +958,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -993,13 +984,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6338028169014085</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1019,13 +1010,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6252006420545746</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>779</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>779</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>467</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1045,13 +1036,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1071,13 +1062,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1097,13 +1088,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1123,13 +1114,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5942857142857143</v>
+        <v>0.6211878009630819</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>774</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>774</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1149,13 +1140,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5614035087719298</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1175,13 +1166,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5555555555555556</v>
+        <v>0.515625</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.546875</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L22">
         <v>35</v>
@@ -1219,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1227,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1256,10 +1247,10 @@
         <v>0.5</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1279,13 +1270,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4850299401197605</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="L25">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M25">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1305,13 +1296,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4711538461538461</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1331,13 +1322,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4698795180722892</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1357,13 +1348,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.46</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1375,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,13 +1374,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4511278195488722</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,13 +1400,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4461538461538462</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1427,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1435,13 +1426,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4262295081967213</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1461,13 +1452,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3975903614457831</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1479,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1487,13 +1478,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3968253968253968</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1513,13 +1504,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3538461538461539</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1539,13 +1530,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3424124513618677</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L35">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="M35">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1557,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>169</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1565,13 +1556,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3383458646616541</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1583,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>88</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1591,13 +1582,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3357843137254902</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1609,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>271</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1617,13 +1608,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2733812949640288</v>
+        <v>0.3</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1635,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1643,13 +1634,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2716049382716049</v>
+        <v>0.2780821917808219</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1661,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>59</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1669,13 +1660,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.263013698630137</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L40">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1687,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>538</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1695,13 +1686,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2344497607655502</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L41">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M41">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1713,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1721,7 +1712,7 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2342342342342342</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L42">
         <v>26</v>
@@ -1739,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1747,13 +1738,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2222222222222222</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1765,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1773,13 +1764,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2178217821782178</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1791,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1799,13 +1790,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2163616792249731</v>
+        <v>0.2282023681377826</v>
       </c>
       <c r="L45">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M45">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1817,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1825,13 +1816,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1724137931034483</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L46">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1843,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1851,13 +1842,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1721854304635762</v>
+        <v>0.1726342710997442</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1869,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>125</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1877,13 +1868,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1713554987212276</v>
+        <v>0.1721854304635762</v>
       </c>
       <c r="L48">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1895,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>648</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1903,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1629139072847682</v>
+        <v>0.1708609271523179</v>
       </c>
       <c r="L49">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M49">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1921,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1929,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1476510067114094</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1947,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1955,13 +1946,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1260504201680672</v>
+        <v>0.1401617250673854</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1973,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1981,13 +1972,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1181818181818182</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L52">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1999,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>388</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2007,13 +1998,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1168384879725086</v>
+        <v>0.1</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2025,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>257</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2033,13 +2024,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1143552311435523</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L54">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2051,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2059,25 +2050,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1054054054054054</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L55">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>331</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2085,13 +2076,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.09225092250922509</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2103,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>246</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2111,13 +2102,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.08518518518518518</v>
+        <v>0.06205250596658711</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2129,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>247</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2137,25 +2128,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.07875894988066826</v>
+        <v>0.05788982259570495</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>386</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2163,25 +2154,25 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.06599713055954089</v>
+        <v>0.05164992826398852</v>
       </c>
       <c r="L59">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2189,103 +2180,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.06578947368421052</v>
+        <v>0.03032928942807626</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K61">
-        <v>0.06284153005464481</v>
-      </c>
-      <c r="L61">
-        <v>23</v>
-      </c>
-      <c r="M61">
-        <v>23</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K62">
-        <v>0.04855275443510738</v>
-      </c>
-      <c r="L62">
-        <v>52</v>
-      </c>
-      <c r="M62">
-        <v>53</v>
-      </c>
-      <c r="N62">
-        <v>0.98</v>
-      </c>
-      <c r="O62">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63">
-        <v>0.0268630849220104</v>
-      </c>
-      <c r="L63">
-        <v>31</v>
-      </c>
-      <c r="M63">
-        <v>34</v>
-      </c>
-      <c r="N63">
-        <v>0.91</v>
-      </c>
-      <c r="O63">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
